--- a/academycity/data/training/datasets/excel/battalion_2/112_2_correction.xlsx
+++ b/academycity/data/training/datasets/excel/battalion_2/112_2_correction.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Data!$A$1:$AJ$4</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Data!$A$1:$AK$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t xml:space="preserve">dshn</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">professional_qualified</t>
   </si>
   <si>
     <r>
@@ -214,7 +217,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -300,6 +303,13 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
       <charset val="177"/>
     </font>
     <font>
@@ -310,7 +320,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,6 +349,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor rgb="FF00AAAD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -395,7 +411,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -456,6 +472,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -468,43 +488,47 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -524,7 +548,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -589,13 +613,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AJ4"/>
+  <dimension ref="A1:AK4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD1" activeCellId="0" sqref="AD1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.89"/>
@@ -605,33 +629,32 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="55.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="16.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="17.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="12.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="10.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="12.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="22" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="11.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="16.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="20.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="29" style="0" width="18.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="21.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="33" style="0" width="18.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="22.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="37" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="17.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="16.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="17.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="12.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="10.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="12.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="23" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="11.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="16.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="20.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="30" style="0" width="18.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="21.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="34" style="0" width="18.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="22.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="38" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -656,46 +679,46 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="9" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="10" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="10" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="6" t="s">
@@ -704,7 +727,7 @@
       <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Y1" s="6" t="s">
         <v>24</v>
       </c>
       <c r="Z1" s="11" t="s">
@@ -713,10 +736,10 @@
       <c r="AA1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AB1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AC1" s="12" t="s">
         <v>28</v>
       </c>
       <c r="AD1" s="11" t="s">
@@ -740,327 +763,339 @@
       <c r="AJ1" s="11" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="11" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="n">
         <v>112149</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" s="13" t="n">
         <v>1</v>
       </c>
       <c r="E2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="16" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="16"/>
+      <c r="O2" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK2" s="17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" s="27" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="20" t="n">
+        <v>112356</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="13" t="s">
+      <c r="D3" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="H3" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="15" t="n">
+      <c r="I3" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="21" t="n">
         <v>45</v>
       </c>
-      <c r="K2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="16" t="n">
+      <c r="L3" s="21" t="n">
+        <v>1807220749</v>
+      </c>
+      <c r="M3" s="21" t="n">
+        <v>1230155</v>
+      </c>
+      <c r="N3" s="23"/>
+      <c r="O3" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="Q2" s="16" t="n">
+      <c r="R3" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="R2" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="S2" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="U2" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="16" t="n">
+      <c r="S3" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="AA2" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="16" t="n">
+      <c r="AB3" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="AF2" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH2" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="16" t="n">
+      <c r="AG3" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="AJ2" s="16" t="n">
+      <c r="AK3" s="26" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="n">
-        <v>112356</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="20" t="s">
+    <row r="4" s="27" customFormat="true" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="21" t="n">
+        <v>112221</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="23" t="n">
         <v>44</v>
       </c>
-      <c r="F3" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="20" t="n">
-        <v>45</v>
-      </c>
-      <c r="K3" s="20" t="n">
-        <v>1807220749</v>
-      </c>
-      <c r="L3" s="20" t="n">
-        <v>1230155</v>
-      </c>
-      <c r="M3" s="21"/>
-      <c r="N3" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="20" t="n">
+      <c r="L4" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="23"/>
+      <c r="O4" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="Q3" s="20" t="n">
+      <c r="R4" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="R3" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="T3" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="U3" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="V3" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="W3" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="X3" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="23" t="n">
+      <c r="S4" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="AA3" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="24" t="n">
+      <c r="AB4" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="AF3" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH3" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI3" s="24" t="n">
+      <c r="AG4" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="AJ3" s="24" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" s="25" customFormat="true" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="20" t="n">
-        <v>112221</v>
-      </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="21" t="n">
-        <v>44</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="L4" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="R4" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="T4" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="U4" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="V4" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="W4" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="X4" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA4" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF4" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ4" s="24" t="n">
+      <c r="AK4" s="26" t="n">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ4"/>
+  <autoFilter ref="A1:AK4"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
